--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DB49EE6C-39E1-4268-AEB1-4883B780580F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O8"/>
 </workbook>
 </file>
 
@@ -33,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +82,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -126,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,9 +168,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,6 +220,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,16 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -399,24 +445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,67 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DB49EE6C-39E1-4268-AEB1-4883B780580F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\Mohs10_TAF\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA1222-0657-4BAB-8BEB-82B5DCD2E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="authorregs" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:O8"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>nagatraining@gmail.com</t>
-  </si>
-  <si>
-    <t>Sample@1234</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>kohli.mishra@gmail.com</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Data science is the study of data to extract meaningful insights for business. It is a multidisciplinary approach that combines principles and practices from the fields of mathematics, statistics, artificial intelligence, and computer engineering to analyze large amounts of data. This analysis helps data scientists to ask and answer questions like what happened, why it happened, what will happen, and what can be done with the results.</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://testautomationforum.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,19 +116,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD1D1D1"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF242424"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -104,44 +246,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -191,9 +333,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -249,221 +391,241 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>